--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Psap-Lrp1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Psap-Lrp1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>132.199811834215</v>
+        <v>132.7307</v>
       </c>
       <c r="H2">
-        <v>132.199811834215</v>
+        <v>398.1921</v>
       </c>
       <c r="I2">
-        <v>0.02647215249462439</v>
+        <v>0.02583639174465758</v>
       </c>
       <c r="J2">
-        <v>0.02647215249462439</v>
+        <v>0.02583639174465758</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.19882538444689</v>
+        <v>6.744736333333333</v>
       </c>
       <c r="N2">
-        <v>5.19882538444689</v>
+        <v>20.234209</v>
       </c>
       <c r="O2">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="P2">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="Q2">
-        <v>687.2837375828193</v>
+        <v>895.2335748387667</v>
       </c>
       <c r="R2">
-        <v>687.2837375828193</v>
+        <v>8057.102173548901</v>
       </c>
       <c r="S2">
-        <v>0.0002172021148049408</v>
+        <v>0.0002710943011832558</v>
       </c>
       <c r="T2">
-        <v>0.0002172021148049408</v>
+        <v>0.0002710943011832558</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>132.199811834215</v>
+        <v>132.7307</v>
       </c>
       <c r="H3">
-        <v>132.199811834215</v>
+        <v>398.1921</v>
       </c>
       <c r="I3">
-        <v>0.02647215249462439</v>
+        <v>0.02583639174465758</v>
       </c>
       <c r="J3">
-        <v>0.02647215249462439</v>
+        <v>0.02583639174465758</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>182.049377209107</v>
+        <v>182.5316823333334</v>
       </c>
       <c r="N3">
-        <v>182.049377209107</v>
+        <v>547.595047</v>
       </c>
       <c r="O3">
-        <v>0.2873153044929174</v>
+        <v>0.283963033503136</v>
       </c>
       <c r="P3">
-        <v>0.2873153044929174</v>
+        <v>0.2839630335031361</v>
       </c>
       <c r="Q3">
-        <v>24066.89341157998</v>
+        <v>24227.55796828097</v>
       </c>
       <c r="R3">
-        <v>24066.89341157998</v>
+        <v>218048.0217145287</v>
       </c>
       <c r="S3">
-        <v>0.00760585455457595</v>
+        <v>0.007336580174588348</v>
       </c>
       <c r="T3">
-        <v>0.00760585455457595</v>
+        <v>0.007336580174588348</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>132.199811834215</v>
+        <v>132.7307</v>
       </c>
       <c r="H4">
-        <v>132.199811834215</v>
+        <v>398.1921</v>
       </c>
       <c r="I4">
-        <v>0.02647215249462439</v>
+        <v>0.02583639174465758</v>
       </c>
       <c r="J4">
-        <v>0.02647215249462439</v>
+        <v>0.02583639174465758</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>248.975499920352</v>
+        <v>249.1329143333333</v>
       </c>
       <c r="N4">
-        <v>248.975499920352</v>
+        <v>747.398743</v>
       </c>
       <c r="O4">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="P4">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="Q4">
-        <v>32914.51424080015</v>
+        <v>33067.58611250337</v>
       </c>
       <c r="R4">
-        <v>32914.51424080015</v>
+        <v>297608.2750125303</v>
       </c>
       <c r="S4">
-        <v>0.01040196604392615</v>
+        <v>0.01001351423911994</v>
       </c>
       <c r="T4">
-        <v>0.01040196604392615</v>
+        <v>0.01001351423911994</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>132.199811834215</v>
+        <v>132.7307</v>
       </c>
       <c r="H5">
-        <v>132.199811834215</v>
+        <v>398.1921</v>
       </c>
       <c r="I5">
-        <v>0.02647215249462439</v>
+        <v>0.02583639174465758</v>
       </c>
       <c r="J5">
-        <v>0.02647215249462439</v>
+        <v>0.02583639174465758</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>181.911640839075</v>
+        <v>186.9310863333334</v>
       </c>
       <c r="N5">
-        <v>181.911640839075</v>
+        <v>560.793259</v>
       </c>
       <c r="O5">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="P5">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="Q5">
-        <v>24048.68468937902</v>
+        <v>24811.49394078377</v>
       </c>
       <c r="R5">
-        <v>24048.68468937902</v>
+        <v>223303.4454670539</v>
       </c>
       <c r="S5">
-        <v>0.00760010005646451</v>
+        <v>0.007513407450564813</v>
       </c>
       <c r="T5">
-        <v>0.00760010005646451</v>
+        <v>0.007513407450564811</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>132.199811834215</v>
+        <v>132.7307</v>
       </c>
       <c r="H6">
-        <v>132.199811834215</v>
+        <v>398.1921</v>
       </c>
       <c r="I6">
-        <v>0.02647215249462439</v>
+        <v>0.02583639174465758</v>
       </c>
       <c r="J6">
-        <v>0.02647215249462439</v>
+        <v>0.02583639174465758</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.4869328094595</v>
+        <v>17.46044133333334</v>
       </c>
       <c r="N6">
-        <v>15.4869328094595</v>
+        <v>52.38132400000001</v>
       </c>
       <c r="O6">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="P6">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="Q6">
-        <v>2047.369603299677</v>
+        <v>2317.536600482267</v>
       </c>
       <c r="R6">
-        <v>2047.369603299677</v>
+        <v>20857.82940434041</v>
       </c>
       <c r="S6">
-        <v>0.0006470297248528392</v>
+        <v>0.0007017955792012283</v>
       </c>
       <c r="T6">
-        <v>0.0006470297248528392</v>
+        <v>0.0007017955792012283</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>166.237361704326</v>
+        <v>166.2925923333333</v>
       </c>
       <c r="H7">
-        <v>166.237361704326</v>
+        <v>498.877777</v>
       </c>
       <c r="I7">
-        <v>0.03328795047650743</v>
+        <v>0.03236930536611832</v>
       </c>
       <c r="J7">
-        <v>0.03328795047650743</v>
+        <v>0.03236930536611832</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.19882538444689</v>
+        <v>6.744736333333333</v>
       </c>
       <c r="N7">
-        <v>5.19882538444689</v>
+        <v>20.234209</v>
       </c>
       <c r="O7">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="P7">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="Q7">
-        <v>864.2390158719293</v>
+        <v>1121.599689474821</v>
       </c>
       <c r="R7">
-        <v>864.2390158719293</v>
+        <v>10094.39720527339</v>
       </c>
       <c r="S7">
-        <v>0.000273125248975797</v>
+        <v>0.0003396424045873112</v>
       </c>
       <c r="T7">
-        <v>0.000273125248975797</v>
+        <v>0.0003396424045873113</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>166.237361704326</v>
+        <v>166.2925923333333</v>
       </c>
       <c r="H8">
-        <v>166.237361704326</v>
+        <v>498.877777</v>
       </c>
       <c r="I8">
-        <v>0.03328795047650743</v>
+        <v>0.03236930536611832</v>
       </c>
       <c r="J8">
-        <v>0.03328795047650743</v>
+        <v>0.03236930536611832</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>182.049377209107</v>
+        <v>182.5316823333334</v>
       </c>
       <c r="N8">
-        <v>182.049377209107</v>
+        <v>547.595047</v>
       </c>
       <c r="O8">
-        <v>0.2873153044929174</v>
+        <v>0.283963033503136</v>
       </c>
       <c r="P8">
-        <v>0.2873153044929174</v>
+        <v>0.2839630335031361</v>
       </c>
       <c r="Q8">
-        <v>30263.4081671576</v>
+        <v>30353.66663817451</v>
       </c>
       <c r="R8">
-        <v>30263.4081671576</v>
+        <v>273182.9997435706</v>
       </c>
       <c r="S8">
-        <v>0.009564137627102887</v>
+        <v>0.009191686144152299</v>
       </c>
       <c r="T8">
-        <v>0.009564137627102887</v>
+        <v>0.0091916861441523</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>166.237361704326</v>
+        <v>166.2925923333333</v>
       </c>
       <c r="H9">
-        <v>166.237361704326</v>
+        <v>498.877777</v>
       </c>
       <c r="I9">
-        <v>0.03328795047650743</v>
+        <v>0.03236930536611832</v>
       </c>
       <c r="J9">
-        <v>0.03328795047650743</v>
+        <v>0.03236930536611832</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>248.975499920352</v>
+        <v>249.1329143333333</v>
       </c>
       <c r="N9">
-        <v>248.975499920352</v>
+        <v>747.398743</v>
       </c>
       <c r="O9">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="P9">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="Q9">
-        <v>41389.03023577495</v>
+        <v>41428.95816004826</v>
       </c>
       <c r="R9">
-        <v>41389.03023577495</v>
+        <v>372860.6234404343</v>
       </c>
       <c r="S9">
-        <v>0.0130801653019655</v>
+        <v>0.01254550184087027</v>
       </c>
       <c r="T9">
-        <v>0.0130801653019655</v>
+        <v>0.01254550184087028</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>166.237361704326</v>
+        <v>166.2925923333333</v>
       </c>
       <c r="H10">
-        <v>166.237361704326</v>
+        <v>498.877777</v>
       </c>
       <c r="I10">
-        <v>0.03328795047650743</v>
+        <v>0.03236930536611832</v>
       </c>
       <c r="J10">
-        <v>0.03328795047650743</v>
+        <v>0.03236930536611832</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>181.911640839075</v>
+        <v>186.9310863333334</v>
       </c>
       <c r="N10">
-        <v>181.911640839075</v>
+        <v>560.793259</v>
       </c>
       <c r="O10">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="P10">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="Q10">
-        <v>30240.51123639275</v>
+        <v>31085.25493405615</v>
       </c>
       <c r="R10">
-        <v>30240.51123639275</v>
+        <v>279767.2944065053</v>
       </c>
       <c r="S10">
-        <v>0.009556901515563047</v>
+        <v>0.00941322544227525</v>
       </c>
       <c r="T10">
-        <v>0.009556901515563047</v>
+        <v>0.00941322544227525</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>166.237361704326</v>
+        <v>166.2925923333333</v>
       </c>
       <c r="H11">
-        <v>166.237361704326</v>
+        <v>498.877777</v>
       </c>
       <c r="I11">
-        <v>0.03328795047650743</v>
+        <v>0.03236930536611832</v>
       </c>
       <c r="J11">
-        <v>0.03328795047650743</v>
+        <v>0.03236930536611832</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>15.4869328094595</v>
+        <v>17.46044133333334</v>
       </c>
       <c r="N11">
-        <v>15.4869328094595</v>
+        <v>52.38132400000001</v>
       </c>
       <c r="O11">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="P11">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="Q11">
-        <v>2574.506851136712</v>
+        <v>2903.542052604084</v>
       </c>
       <c r="R11">
-        <v>2574.506851136712</v>
+        <v>26131.87847343675</v>
       </c>
       <c r="S11">
-        <v>0.000813620782900191</v>
+        <v>0.0008792495342331908</v>
       </c>
       <c r="T11">
-        <v>0.000813620782900191</v>
+        <v>0.0008792495342331909</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2532.32253076538</v>
+        <v>2533.363444</v>
       </c>
       <c r="H12">
-        <v>2532.32253076538</v>
+        <v>7600.090332</v>
       </c>
       <c r="I12">
-        <v>0.5070811166059809</v>
+        <v>0.4931260844008123</v>
       </c>
       <c r="J12">
-        <v>0.5070811166059809</v>
+        <v>0.4931260844008122</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.19882538444689</v>
+        <v>6.744736333333333</v>
       </c>
       <c r="N12">
-        <v>5.19882538444689</v>
+        <v>20.234209</v>
       </c>
       <c r="O12">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="P12">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="Q12">
-        <v>13165.10265454985</v>
+        <v>17086.86846628526</v>
       </c>
       <c r="R12">
-        <v>13165.10265454985</v>
+        <v>153781.8161965674</v>
       </c>
       <c r="S12">
-        <v>0.004160564235448381</v>
+        <v>0.005174239211383547</v>
       </c>
       <c r="T12">
-        <v>0.004160564235448381</v>
+        <v>0.005174239211383546</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2532.32253076538</v>
+        <v>2533.363444</v>
       </c>
       <c r="H13">
-        <v>2532.32253076538</v>
+        <v>7600.090332</v>
       </c>
       <c r="I13">
-        <v>0.5070811166059809</v>
+        <v>0.4931260844008123</v>
       </c>
       <c r="J13">
-        <v>0.5070811166059809</v>
+        <v>0.4931260844008122</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>182.049377209107</v>
+        <v>182.5316823333334</v>
       </c>
       <c r="N13">
-        <v>182.049377209107</v>
+        <v>547.595047</v>
       </c>
       <c r="O13">
-        <v>0.2873153044929174</v>
+        <v>0.283963033503136</v>
       </c>
       <c r="P13">
-        <v>0.2873153044929174</v>
+        <v>0.2839630335031361</v>
       </c>
       <c r="Q13">
-        <v>461007.7396184272</v>
+        <v>462419.0913950874</v>
       </c>
       <c r="R13">
-        <v>461007.7396184272</v>
+        <v>4161771.822555786</v>
       </c>
       <c r="S13">
-        <v>0.145692165420256</v>
+        <v>0.1400295788259781</v>
       </c>
       <c r="T13">
-        <v>0.145692165420256</v>
+        <v>0.1400295788259781</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2532.32253076538</v>
+        <v>2533.363444</v>
       </c>
       <c r="H14">
-        <v>2532.32253076538</v>
+        <v>7600.090332</v>
       </c>
       <c r="I14">
-        <v>0.5070811166059809</v>
+        <v>0.4931260844008123</v>
       </c>
       <c r="J14">
-        <v>0.5070811166059809</v>
+        <v>0.4931260844008122</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>248.975499920352</v>
+        <v>249.1329143333333</v>
       </c>
       <c r="N14">
-        <v>248.975499920352</v>
+        <v>747.398743</v>
       </c>
       <c r="O14">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="P14">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="Q14">
-        <v>630486.2680568815</v>
+        <v>631144.2178692503</v>
       </c>
       <c r="R14">
-        <v>630486.2680568815</v>
+        <v>5680297.960823252</v>
       </c>
       <c r="S14">
-        <v>0.1992524241284373</v>
+        <v>0.1911228594391495</v>
       </c>
       <c r="T14">
-        <v>0.1992524241284373</v>
+        <v>0.1911228594391495</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2532.32253076538</v>
+        <v>2533.363444</v>
       </c>
       <c r="H15">
-        <v>2532.32253076538</v>
+        <v>7600.090332</v>
       </c>
       <c r="I15">
-        <v>0.5070811166059809</v>
+        <v>0.4931260844008123</v>
       </c>
       <c r="J15">
-        <v>0.5070811166059809</v>
+        <v>0.4931260844008122</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>181.911640839075</v>
+        <v>186.9310863333334</v>
       </c>
       <c r="N15">
-        <v>181.911640839075</v>
+        <v>560.793259</v>
       </c>
       <c r="O15">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="P15">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="Q15">
-        <v>460658.9467052893</v>
+        <v>473564.3806640747</v>
       </c>
       <c r="R15">
-        <v>460658.9467052893</v>
+        <v>4262079.425976672</v>
       </c>
       <c r="S15">
-        <v>0.1455819364795437</v>
+        <v>0.1434045912146785</v>
       </c>
       <c r="T15">
-        <v>0.1455819364795437</v>
+        <v>0.1434045912146785</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2532.32253076538</v>
+        <v>2533.363444</v>
       </c>
       <c r="H16">
-        <v>2532.32253076538</v>
+        <v>7600.090332</v>
       </c>
       <c r="I16">
-        <v>0.5070811166059809</v>
+        <v>0.4931260844008123</v>
       </c>
       <c r="J16">
-        <v>0.5070811166059809</v>
+        <v>0.4931260844008122</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>15.4869328094595</v>
+        <v>17.46044133333334</v>
       </c>
       <c r="N16">
-        <v>15.4869328094595</v>
+        <v>52.38132400000001</v>
       </c>
       <c r="O16">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="P16">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="Q16">
-        <v>39217.90888584388</v>
+        <v>44233.64378997329</v>
       </c>
       <c r="R16">
-        <v>39217.90888584388</v>
+        <v>398102.7941097596</v>
       </c>
       <c r="S16">
-        <v>0.0123940263422955</v>
+        <v>0.01339481570962255</v>
       </c>
       <c r="T16">
-        <v>0.0123940263422955</v>
+        <v>0.01339481570962255</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2128.70806829482</v>
+        <v>2268.188964666666</v>
       </c>
       <c r="H17">
-        <v>2128.70806829482</v>
+        <v>6804.566894</v>
       </c>
       <c r="I17">
-        <v>0.4262599455973907</v>
+        <v>0.4415091507996061</v>
       </c>
       <c r="J17">
-        <v>0.4262599455973907</v>
+        <v>0.4415091507996061</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.19882538444689</v>
+        <v>6.744736333333333</v>
       </c>
       <c r="N17">
-        <v>5.19882538444689</v>
+        <v>20.234209</v>
       </c>
       <c r="O17">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="P17">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="Q17">
-        <v>11066.78154152801</v>
+        <v>15298.33652085298</v>
       </c>
       <c r="R17">
-        <v>11066.78154152801</v>
+        <v>137685.0286876769</v>
       </c>
       <c r="S17">
-        <v>0.003497432317194196</v>
+        <v>0.004632636626853337</v>
       </c>
       <c r="T17">
-        <v>0.003497432317194196</v>
+        <v>0.004632636626853338</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2128.70806829482</v>
+        <v>2268.188964666666</v>
       </c>
       <c r="H18">
-        <v>2128.70806829482</v>
+        <v>6804.566894</v>
       </c>
       <c r="I18">
-        <v>0.4262599455973907</v>
+        <v>0.4415091507996061</v>
       </c>
       <c r="J18">
-        <v>0.4262599455973907</v>
+        <v>0.4415091507996061</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>182.049377209107</v>
+        <v>182.5316823333334</v>
       </c>
       <c r="N18">
-        <v>182.049377209107</v>
+        <v>547.595047</v>
       </c>
       <c r="O18">
-        <v>0.2873153044929174</v>
+        <v>0.283963033503136</v>
       </c>
       <c r="P18">
-        <v>0.2873153044929174</v>
+        <v>0.2839630335031361</v>
       </c>
       <c r="Q18">
-        <v>387529.9780930732</v>
+        <v>414016.3475705082</v>
       </c>
       <c r="R18">
-        <v>387529.9780930732</v>
+        <v>3726147.128134574</v>
       </c>
       <c r="S18">
-        <v>0.1224710060624487</v>
+        <v>0.1253722777804497</v>
       </c>
       <c r="T18">
-        <v>0.1224710060624487</v>
+        <v>0.1253722777804497</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2128.70806829482</v>
+        <v>2268.188964666666</v>
       </c>
       <c r="H19">
-        <v>2128.70806829482</v>
+        <v>6804.566894</v>
       </c>
       <c r="I19">
-        <v>0.4262599455973907</v>
+        <v>0.4415091507996061</v>
       </c>
       <c r="J19">
-        <v>0.4262599455973907</v>
+        <v>0.4415091507996061</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>248.975499920352</v>
+        <v>249.1329143333333</v>
       </c>
       <c r="N19">
-        <v>248.975499920352</v>
+        <v>747.398743</v>
       </c>
       <c r="O19">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="P19">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="Q19">
-        <v>529996.1554881897</v>
+        <v>565080.5270261127</v>
       </c>
       <c r="R19">
-        <v>529996.1554881897</v>
+        <v>5085724.743235013</v>
       </c>
       <c r="S19">
-        <v>0.1674945579468934</v>
+        <v>0.1711174769266219</v>
       </c>
       <c r="T19">
-        <v>0.1674945579468934</v>
+        <v>0.1711174769266219</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2128.70806829482</v>
+        <v>2268.188964666666</v>
       </c>
       <c r="H20">
-        <v>2128.70806829482</v>
+        <v>6804.566894</v>
       </c>
       <c r="I20">
-        <v>0.4262599455973907</v>
+        <v>0.4415091507996061</v>
       </c>
       <c r="J20">
-        <v>0.4262599455973907</v>
+        <v>0.4415091507996061</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>181.911640839075</v>
+        <v>186.9310863333334</v>
       </c>
       <c r="N20">
-        <v>181.911640839075</v>
+        <v>560.793259</v>
       </c>
       <c r="O20">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="P20">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="Q20">
-        <v>387236.7775708884</v>
+        <v>423995.0271744186</v>
       </c>
       <c r="R20">
-        <v>387236.7775708884</v>
+        <v>3815955.244569768</v>
       </c>
       <c r="S20">
-        <v>0.1223783459717205</v>
+        <v>0.1283940178603399</v>
       </c>
       <c r="T20">
-        <v>0.1223783459717205</v>
+        <v>0.1283940178603399</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2128.70806829482</v>
+        <v>2268.188964666666</v>
       </c>
       <c r="H21">
-        <v>2128.70806829482</v>
+        <v>6804.566894</v>
       </c>
       <c r="I21">
-        <v>0.4262599455973907</v>
+        <v>0.4415091507996061</v>
       </c>
       <c r="J21">
-        <v>0.4262599455973907</v>
+        <v>0.4415091507996061</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>15.4869328094595</v>
+        <v>17.46044133333334</v>
       </c>
       <c r="N21">
-        <v>15.4869328094595</v>
+        <v>52.38132400000001</v>
       </c>
       <c r="O21">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="P21">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="Q21">
-        <v>32967.1588246362</v>
+        <v>39603.5803504764</v>
       </c>
       <c r="R21">
-        <v>32967.1588246362</v>
+        <v>356432.2231542877</v>
       </c>
       <c r="S21">
-        <v>0.01041860329913377</v>
+        <v>0.01199274160534132</v>
       </c>
       <c r="T21">
-        <v>0.01041860329913377</v>
+        <v>0.01199274160534132</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>34.4522292243205</v>
+        <v>36.77866766666667</v>
       </c>
       <c r="H22">
-        <v>34.4522292243205</v>
+        <v>110.336003</v>
       </c>
       <c r="I22">
-        <v>0.006898834825496502</v>
+        <v>0.007159067688805765</v>
       </c>
       <c r="J22">
-        <v>0.006898834825496502</v>
+        <v>0.007159067688805764</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>5.19882538444689</v>
+        <v>6.744736333333333</v>
       </c>
       <c r="N22">
-        <v>5.19882538444689</v>
+        <v>20.234209</v>
       </c>
       <c r="O22">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="P22">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="Q22">
-        <v>179.1111238421804</v>
+        <v>248.0624161029586</v>
       </c>
       <c r="R22">
-        <v>179.1111238421804</v>
+        <v>2232.561744926627</v>
       </c>
       <c r="S22">
-        <v>5.660444552410685E-05</v>
+        <v>7.511816941782273E-05</v>
       </c>
       <c r="T22">
-        <v>5.660444552410685E-05</v>
+        <v>7.511816941782273E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>34.4522292243205</v>
+        <v>36.77866766666667</v>
       </c>
       <c r="H23">
-        <v>34.4522292243205</v>
+        <v>110.336003</v>
       </c>
       <c r="I23">
-        <v>0.006898834825496502</v>
+        <v>0.007159067688805765</v>
       </c>
       <c r="J23">
-        <v>0.006898834825496502</v>
+        <v>0.007159067688805764</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>182.049377209107</v>
+        <v>182.5316823333334</v>
       </c>
       <c r="N23">
-        <v>182.049377209107</v>
+        <v>547.595047</v>
       </c>
       <c r="O23">
-        <v>0.2873153044929174</v>
+        <v>0.283963033503136</v>
       </c>
       <c r="P23">
-        <v>0.2873153044929174</v>
+        <v>0.2839630335031361</v>
       </c>
       <c r="Q23">
-        <v>6272.006873752943</v>
+        <v>6713.272083175239</v>
       </c>
       <c r="R23">
-        <v>6272.006873752943</v>
+        <v>60419.44874857715</v>
       </c>
       <c r="S23">
-        <v>0.00198214082853387</v>
+        <v>0.00203291057796757</v>
       </c>
       <c r="T23">
-        <v>0.00198214082853387</v>
+        <v>0.00203291057796757</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>34.4522292243205</v>
+        <v>36.77866766666667</v>
       </c>
       <c r="H24">
-        <v>34.4522292243205</v>
+        <v>110.336003</v>
       </c>
       <c r="I24">
-        <v>0.006898834825496502</v>
+        <v>0.007159067688805765</v>
       </c>
       <c r="J24">
-        <v>0.006898834825496502</v>
+        <v>0.007159067688805764</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>248.975499920352</v>
+        <v>249.1329143333333</v>
       </c>
       <c r="N24">
-        <v>248.975499920352</v>
+        <v>747.398743</v>
       </c>
       <c r="O24">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="P24">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="Q24">
-        <v>8577.760994495757</v>
+        <v>9162.776661093803</v>
       </c>
       <c r="R24">
-        <v>8577.760994495757</v>
+        <v>82464.98994984422</v>
       </c>
       <c r="S24">
-        <v>0.002710827750483914</v>
+        <v>0.002774668651457626</v>
       </c>
       <c r="T24">
-        <v>0.002710827750483914</v>
+        <v>0.002774668651457626</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>34.4522292243205</v>
+        <v>36.77866766666667</v>
       </c>
       <c r="H25">
-        <v>34.4522292243205</v>
+        <v>110.336003</v>
       </c>
       <c r="I25">
-        <v>0.006898834825496502</v>
+        <v>0.007159067688805765</v>
       </c>
       <c r="J25">
-        <v>0.006898834825496502</v>
+        <v>0.007159067688805764</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>181.911640839075</v>
+        <v>186.9310863333334</v>
       </c>
       <c r="N25">
-        <v>181.911640839075</v>
+        <v>560.793259</v>
       </c>
       <c r="O25">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="P25">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="Q25">
-        <v>6267.261548760074</v>
+        <v>6875.076300822643</v>
       </c>
       <c r="R25">
-        <v>6267.261548760074</v>
+        <v>61875.68670740379</v>
       </c>
       <c r="S25">
-        <v>0.001980641164614115</v>
+        <v>0.002081908071520609</v>
       </c>
       <c r="T25">
-        <v>0.001980641164614115</v>
+        <v>0.002081908071520608</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>34.4522292243205</v>
+        <v>36.77866766666667</v>
       </c>
       <c r="H26">
-        <v>34.4522292243205</v>
+        <v>110.336003</v>
       </c>
       <c r="I26">
-        <v>0.006898834825496502</v>
+        <v>0.007159067688805765</v>
       </c>
       <c r="J26">
-        <v>0.006898834825496502</v>
+        <v>0.007159067688805764</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>15.4869328094595</v>
+        <v>17.46044133333334</v>
       </c>
       <c r="N26">
-        <v>15.4869328094595</v>
+        <v>52.38132400000001</v>
       </c>
       <c r="O26">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="P26">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="Q26">
-        <v>533.5593591331485</v>
+        <v>642.171769111997</v>
       </c>
       <c r="R26">
-        <v>533.5593591331485</v>
+        <v>5779.545922007973</v>
       </c>
       <c r="S26">
-        <v>0.000168620636340495</v>
+        <v>0.0001944622184421375</v>
       </c>
       <c r="T26">
-        <v>0.000168620636340495</v>
+        <v>0.0001944622184421375</v>
       </c>
     </row>
   </sheetData>
